--- a/filter/glue/tabular/ibv.refseqs.data.xlsx
+++ b/filter/glue/tabular/ibv.refseqs.data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/Flu-NCBI-Filter/project/tabular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/respiratory/Flu-GLUE/filter/glue/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30156E67-1E73-E040-A305-B2C9EB04AB39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0358C5D-7294-7441-95E1-1DDF57553FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -851,7 +851,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -993,7 +993,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1173,6 +1173,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1334,8 +1340,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1395,9 +1402,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1435,7 +1442,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1541,7 +1548,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1683,7 +1690,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1691,78 +1698,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S173"/>
+  <dimension ref="A1:T173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D13" sqref="A1:S173"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="18" max="18" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -1809,7 +1817,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -1859,7 +1867,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -1909,7 +1917,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -1959,7 +1967,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -2009,7 +2017,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -2050,7 +2058,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -2091,7 +2099,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -2132,7 +2140,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -2182,7 +2190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>192</v>
       </c>
@@ -2223,7 +2231,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>215</v>
       </c>
@@ -2264,7 +2272,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>238</v>
       </c>
@@ -2305,7 +2313,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -2346,7 +2354,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -2387,7 +2395,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -2428,7 +2436,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -2478,7 +2486,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>200</v>
       </c>
@@ -2519,7 +2527,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>223</v>
       </c>
@@ -2560,7 +2568,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>246</v>
       </c>
@@ -2601,7 +2609,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>170</v>
       </c>
@@ -2651,7 +2659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>165</v>
       </c>
@@ -2701,7 +2709,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>163</v>
       </c>
@@ -2751,7 +2759,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -2780,7 +2788,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -2809,7 +2817,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -2838,7 +2846,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>202</v>
       </c>
@@ -2867,7 +2875,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>225</v>
       </c>
@@ -2896,7 +2904,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>248</v>
       </c>
@@ -2925,7 +2933,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>255</v>
       </c>
@@ -2954,7 +2962,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>168</v>
       </c>
@@ -2989,7 +2997,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3027,7 +3035,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -3065,7 +3073,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -3103,7 +3111,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -3150,7 +3158,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>189</v>
       </c>
@@ -3188,7 +3196,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>212</v>
       </c>
@@ -3226,7 +3234,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>235</v>
       </c>
@@ -3264,7 +3272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -3302,7 +3310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -3340,7 +3348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>114</v>
       </c>
@@ -3378,7 +3386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>148</v>
       </c>
@@ -3425,7 +3433,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -3463,7 +3471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>210</v>
       </c>
@@ -3501,7 +3509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>233</v>
       </c>
@@ -3539,7 +3547,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -3577,7 +3585,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -3615,7 +3623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>113</v>
       </c>
@@ -3653,7 +3661,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -3700,7 +3708,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>186</v>
       </c>
@@ -3738,7 +3746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>209</v>
       </c>
@@ -3776,7 +3784,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>232</v>
       </c>
@@ -3814,7 +3822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -3852,7 +3860,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -3890,7 +3898,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>121</v>
       </c>
@@ -3928,7 +3936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>156</v>
       </c>
@@ -3975,7 +3983,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>194</v>
       </c>
@@ -4013,7 +4021,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>217</v>
       </c>
@@ -4051,7 +4059,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>240</v>
       </c>
@@ -4089,7 +4097,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -4127,7 +4135,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -4165,7 +4173,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>117</v>
       </c>
@@ -4203,7 +4211,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>152</v>
       </c>
@@ -4250,7 +4258,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -4288,7 +4296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>213</v>
       </c>
@@ -4326,7 +4334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>236</v>
       </c>
@@ -4364,7 +4372,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -4405,7 +4413,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -4446,7 +4454,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>130</v>
       </c>
@@ -4487,7 +4495,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>177</v>
       </c>
@@ -4531,7 +4539,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>203</v>
       </c>
@@ -4572,7 +4580,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>226</v>
       </c>
@@ -4613,7 +4621,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -4654,7 +4662,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>179</v>
       </c>
@@ -4704,7 +4712,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>61</v>
       </c>
@@ -4745,7 +4753,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>100</v>
       </c>
@@ -4786,7 +4794,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>123</v>
       </c>
@@ -4827,7 +4835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>158</v>
       </c>
@@ -4877,7 +4885,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>196</v>
       </c>
@@ -4918,7 +4926,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>219</v>
       </c>
@@ -4959,7 +4967,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -5000,7 +5008,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>64</v>
       </c>
@@ -5041,7 +5049,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -5082,7 +5090,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>124</v>
       </c>
@@ -5123,7 +5131,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>159</v>
       </c>
@@ -5173,7 +5181,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>197</v>
       </c>
@@ -5214,7 +5222,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>220</v>
       </c>
@@ -5255,7 +5263,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>243</v>
       </c>
@@ -5296,7 +5304,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>68</v>
       </c>
@@ -5337,7 +5345,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -5378,7 +5386,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>125</v>
       </c>
@@ -5419,7 +5427,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>160</v>
       </c>
@@ -5469,7 +5477,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>198</v>
       </c>
@@ -5510,7 +5518,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>221</v>
       </c>
@@ -5551,7 +5559,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>244</v>
       </c>
@@ -5592,7 +5600,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>71</v>
       </c>
@@ -5633,7 +5641,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -5674,7 +5682,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>126</v>
       </c>
@@ -5715,7 +5723,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>161</v>
       </c>
@@ -5765,7 +5773,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -5806,7 +5814,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>222</v>
       </c>
@@ -5847,7 +5855,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>245</v>
       </c>
@@ -5888,7 +5896,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>52</v>
       </c>
@@ -5929,7 +5937,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>97</v>
       </c>
@@ -5970,7 +5978,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>120</v>
       </c>
@@ -6011,7 +6019,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>155</v>
       </c>
@@ -6061,7 +6069,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>193</v>
       </c>
@@ -6102,7 +6110,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>216</v>
       </c>
@@ -6143,7 +6151,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>239</v>
       </c>
@@ -6184,7 +6192,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>76</v>
       </c>
@@ -6225,7 +6233,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>105</v>
       </c>
@@ -6266,7 +6274,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -6307,7 +6315,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>167</v>
       </c>
@@ -6357,7 +6365,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>201</v>
       </c>
@@ -6398,7 +6406,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>224</v>
       </c>
@@ -6439,7 +6447,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>247</v>
       </c>
@@ -6480,7 +6488,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>40</v>
       </c>
@@ -6521,7 +6529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>92</v>
       </c>
@@ -6562,7 +6570,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>115</v>
       </c>
@@ -6603,7 +6611,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>149</v>
       </c>
@@ -6653,7 +6661,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>188</v>
       </c>
@@ -6694,7 +6702,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>211</v>
       </c>
@@ -6735,7 +6743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>234</v>
       </c>
@@ -6776,7 +6784,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>58</v>
       </c>
@@ -6817,7 +6825,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>99</v>
       </c>
@@ -6858,7 +6866,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>122</v>
       </c>
@@ -6899,7 +6907,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>157</v>
       </c>
@@ -6949,7 +6957,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>195</v>
       </c>
@@ -6990,7 +6998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>218</v>
       </c>
@@ -7031,7 +7039,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>241</v>
       </c>
@@ -7072,7 +7080,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -7101,7 +7109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>86</v>
       </c>
@@ -7130,7 +7138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>108</v>
       </c>
@@ -7159,7 +7167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -7197,7 +7205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>181</v>
       </c>
@@ -7226,7 +7234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>204</v>
       </c>
@@ -7255,7 +7263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>227</v>
       </c>
@@ -7284,7 +7292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>250</v>
       </c>
@@ -7313,7 +7321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>46</v>
       </c>
@@ -7354,7 +7362,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>95</v>
       </c>
@@ -7395,7 +7403,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>118</v>
       </c>
@@ -7436,7 +7444,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>153</v>
       </c>
@@ -7486,7 +7494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>191</v>
       </c>
@@ -7527,7 +7535,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>214</v>
       </c>
@@ -7568,7 +7576,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>237</v>
       </c>
@@ -7609,7 +7617,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>28</v>
       </c>
@@ -7650,7 +7658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>89</v>
       </c>
@@ -7691,7 +7699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>112</v>
       </c>
@@ -7732,7 +7740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>142</v>
       </c>
@@ -7782,7 +7790,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>185</v>
       </c>
@@ -7823,7 +7831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>208</v>
       </c>
@@ -7864,7 +7872,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>231</v>
       </c>
@@ -7905,7 +7913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>138</v>
       </c>
@@ -7952,7 +7960,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>135</v>
       </c>
@@ -8002,7 +8010,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -8037,7 +8045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>88</v>
       </c>
@@ -8072,7 +8080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>111</v>
       </c>
@@ -8107,7 +8115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>134</v>
       </c>
@@ -8151,7 +8159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>184</v>
       </c>
@@ -8186,7 +8194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>207</v>
       </c>
@@ -8221,7 +8229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>230</v>
       </c>
@@ -8256,7 +8264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>253</v>
       </c>
@@ -8294,7 +8302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>21</v>
       </c>
@@ -8314,7 +8322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>21</v>
       </c>
@@ -8334,7 +8342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>23</v>
       </c>
@@ -8354,7 +8362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>23</v>
       </c>
@@ -8374,7 +8382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>110</v>
       </c>
@@ -8394,7 +8402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>133</v>
       </c>
@@ -8417,7 +8425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>150</v>
       </c>
@@ -8443,7 +8451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>183</v>
       </c>
@@ -8463,7 +8471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>206</v>
       </c>
@@ -8483,7 +8491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>229</v>
       </c>
@@ -8503,7 +8511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>252</v>
       </c>
